--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>url</t>
   </si>
@@ -28,16 +28,133 @@
     <t>comment</t>
   </si>
   <si>
+    <t>document.1</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
     <t>document</t>
   </si>
   <si>
+    <t xml:space="preserve">How can devops team take advantage of artificial intelligence </t>
+  </si>
+  <si>
     <t>How to Break Down a Complex Problem</t>
   </si>
   <si>
+    <t>What is an Aha Moment</t>
+  </si>
+  <si>
+    <t>What is K Level Thinking</t>
+  </si>
+  <si>
+    <t>What is the 80 20 percent rule</t>
+  </si>
+  <si>
+    <t>What is the ambiguity effect</t>
+  </si>
+  <si>
+    <t>What is the barnum effect</t>
+  </si>
+  <si>
+    <t>What is the believe bias</t>
+  </si>
+  <si>
+    <t>What is the Bystander Effect</t>
+  </si>
+  <si>
+    <t>What is the Cheerleader effect</t>
+  </si>
+  <si>
+    <t>What is the Dunning-Krueger-Effect</t>
+  </si>
+  <si>
+    <t>What is the Narrow Path Principle</t>
+  </si>
+  <si>
+    <t>What is the quantitative accumulation effect</t>
+  </si>
+  <si>
+    <t>What is the self-fulfilling prophecy</t>
+  </si>
+  <si>
+    <t>What is the single source of truth principle</t>
+  </si>
+  <si>
+    <t>What is the Skyscraper Method</t>
+  </si>
+  <si>
+    <t>What is the Technology Window</t>
+  </si>
+  <si>
+    <t>What Jobs are threatened by AI the most</t>
+  </si>
+  <si>
+    <t>how-can-devops-team-take-advantage-of-artificial-intelligence-</t>
+  </si>
+  <si>
     <t>how-to-break-down-a-complex-problem</t>
   </si>
   <si>
-    <t>2023-02-05</t>
+    <t>what-is-an-aha-moment</t>
+  </si>
+  <si>
+    <t>what-is-k-level-thinking</t>
+  </si>
+  <si>
+    <t>what-is-the-80-20-percent-rule</t>
+  </si>
+  <si>
+    <t>what-is-the-ambiguity-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-barnum-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-believe-bias</t>
+  </si>
+  <si>
+    <t>what-is-the-bystander-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-cheerleader-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-dunning-krueger-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-narrow-path-principle</t>
+  </si>
+  <si>
+    <t>what-is-the-quantitative-accumulation-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-self-fulfilling-prophecy</t>
+  </si>
+  <si>
+    <t>what-is-the-single-source-of-truth-principle</t>
+  </si>
+  <si>
+    <t>what-is-the-skyscraper-method</t>
+  </si>
+  <si>
+    <t>what-is-the-technology-window</t>
+  </si>
+  <si>
+    <t>what-jobs-are-threatened-by-ai-the-most</t>
+  </si>
+  <si>
+    <t>2023.2.12</t>
+  </si>
+  <si>
+    <t>2023.2.6</t>
+  </si>
+  <si>
+    <t>2023.2.11</t>
+  </si>
+  <si>
+    <t>2023.2.5</t>
   </si>
 </sst>
 </file>
@@ -395,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -420,22 +537,368 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>url</t>
   </si>
@@ -28,139 +28,190 @@
     <t>comment</t>
   </si>
   <si>
-    <t>document.1</t>
+    <t>document</t>
   </si>
   <si>
     <t>updated</t>
   </si>
   <si>
-    <t>document</t>
+    <t>13 cognitive biases to avoid in daily life</t>
+  </si>
+  <si>
+    <t>What is the 80 percent rule</t>
+  </si>
+  <si>
+    <t>What is K Level Thinking</t>
+  </si>
+  <si>
+    <t>What is the ambiguity effect</t>
+  </si>
+  <si>
+    <t>What is the Skyscraper Method</t>
+  </si>
+  <si>
+    <t>What is the Technology Window</t>
+  </si>
+  <si>
+    <t>What is the single source of truth principle</t>
+  </si>
+  <si>
+    <t>What is the self-fulfilling prophecy</t>
+  </si>
+  <si>
+    <t>What is the quantitative accumulation effect</t>
+  </si>
+  <si>
+    <t>What is the Narrow Path Principle</t>
+  </si>
+  <si>
+    <t>What is the Dunning-Krueger-Effect</t>
+  </si>
+  <si>
+    <t>What is the believe bias</t>
+  </si>
+  <si>
+    <t>What is the Cheerleader effect</t>
+  </si>
+  <si>
+    <t>What is the Bystander Effect</t>
+  </si>
+  <si>
+    <t>What is the barnum effect</t>
+  </si>
+  <si>
+    <t>What is an Aha Moment</t>
   </si>
   <si>
     <t xml:space="preserve">How can devops team take advantage of artificial intelligence </t>
   </si>
   <si>
+    <t>What Jobs are threatened by AI the most</t>
+  </si>
+  <si>
     <t>How to Break Down a Complex Problem</t>
   </si>
   <si>
-    <t>What is an Aha Moment</t>
-  </si>
-  <si>
-    <t>What is K Level Thinking</t>
-  </si>
-  <si>
-    <t>What is the 80 20 percent rule</t>
-  </si>
-  <si>
-    <t>What is the ambiguity effect</t>
-  </si>
-  <si>
-    <t>What is the barnum effect</t>
-  </si>
-  <si>
-    <t>What is the believe bias</t>
-  </si>
-  <si>
-    <t>What is the Bystander Effect</t>
-  </si>
-  <si>
-    <t>What is the Cheerleader effect</t>
-  </si>
-  <si>
-    <t>What is the Dunning-Krueger-Effect</t>
-  </si>
-  <si>
-    <t>What is the Narrow Path Principle</t>
-  </si>
-  <si>
-    <t>What is the quantitative accumulation effect</t>
-  </si>
-  <si>
-    <t>What is the self-fulfilling prophecy</t>
-  </si>
-  <si>
-    <t>What is the single source of truth principle</t>
-  </si>
-  <si>
-    <t>What is the Skyscraper Method</t>
-  </si>
-  <si>
-    <t>What is the Technology Window</t>
-  </si>
-  <si>
-    <t>What Jobs are threatened by AI the most</t>
+    <t>cognitive-biases-to-avoid-in-daily-life</t>
+  </si>
+  <si>
+    <t>what-is-the-80-percent-rule</t>
+  </si>
+  <si>
+    <t>what-is-k-level-thinking</t>
+  </si>
+  <si>
+    <t>what-is-the-ambiguity-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-skyscraper-method</t>
+  </si>
+  <si>
+    <t>what-is-the-technology-window</t>
+  </si>
+  <si>
+    <t>what-is-the-single-source-of-truth-principle</t>
+  </si>
+  <si>
+    <t>what-is-the-self-fulfilling-prophecy</t>
+  </si>
+  <si>
+    <t>what-is-the-quantitative-accumulation-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-narrow-path-principle</t>
+  </si>
+  <si>
+    <t>what-is-the-dunning-krueger-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-believe-bias</t>
+  </si>
+  <si>
+    <t>what-is-the-cheerleader-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-bystander-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-barnum-effect</t>
+  </si>
+  <si>
+    <t>what-is-an-aha-moment</t>
   </si>
   <si>
     <t>how-can-devops-team-take-advantage-of-artificial-intelligence-</t>
   </si>
   <si>
+    <t>what-jobs-are-threatened-by-ai-the-most</t>
+  </si>
+  <si>
     <t>how-to-break-down-a-complex-problem</t>
   </si>
   <si>
-    <t>what-is-an-aha-moment</t>
-  </si>
-  <si>
-    <t>what-is-k-level-thinking</t>
-  </si>
-  <si>
-    <t>what-is-the-80-20-percent-rule</t>
-  </si>
-  <si>
-    <t>what-is-the-ambiguity-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-barnum-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-believe-bias</t>
-  </si>
-  <si>
-    <t>what-is-the-bystander-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-cheerleader-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-dunning-krueger-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-narrow-path-principle</t>
-  </si>
-  <si>
-    <t>what-is-the-quantitative-accumulation-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-self-fulfilling-prophecy</t>
-  </si>
-  <si>
-    <t>what-is-the-single-source-of-truth-principle</t>
-  </si>
-  <si>
-    <t>what-is-the-skyscraper-method</t>
-  </si>
-  <si>
-    <t>what-is-the-technology-window</t>
-  </si>
-  <si>
-    <t>what-jobs-are-threatened-by-ai-the-most</t>
-  </si>
-  <si>
-    <t>2023.2.12</t>
-  </si>
-  <si>
-    <t>2023.2.6</t>
-  </si>
-  <si>
-    <t>2023.2.11</t>
-  </si>
-  <si>
-    <t>2023.2.5</t>
+    <t>13 Cognitive Biases To Avoid In Daily Life</t>
+  </si>
+  <si>
+    <t>What Is The 80 Percent Rule</t>
+  </si>
+  <si>
+    <t>What Is K Level Thinking</t>
+  </si>
+  <si>
+    <t>What Is The Ambiguity Effect</t>
+  </si>
+  <si>
+    <t>What Is The Skyscraper Method</t>
+  </si>
+  <si>
+    <t>What Is The Technology Window</t>
+  </si>
+  <si>
+    <t>What Is The Single Source Of Truth Principle</t>
+  </si>
+  <si>
+    <t>What Is The Self-Fulfilling Prophecy</t>
+  </si>
+  <si>
+    <t>What Is The Quantitative Accumulation Effect</t>
+  </si>
+  <si>
+    <t>What Is The Narrow Path Principle</t>
+  </si>
+  <si>
+    <t>What Is The Dunning-Krueger-Effect</t>
+  </si>
+  <si>
+    <t>What Is The Believe Bias</t>
+  </si>
+  <si>
+    <t>What Is The Cheerleader Effect</t>
+  </si>
+  <si>
+    <t>What Is The Bystander Effect</t>
+  </si>
+  <si>
+    <t>What Is The Barnum Effect</t>
+  </si>
+  <si>
+    <t>What Is An Aha Moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Can Devops Team Take Advantage Of Artificial Intelligence </t>
+  </si>
+  <si>
+    <t>What Jobs Are Threatened By Ai The Most</t>
+  </si>
+  <si>
+    <t>How To Break Down A Complex Problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -213,11 +264,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -543,362 +595,382 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44969.77608403955</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44969.74406943242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44969.53807938268</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44968.82652412132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44969.5374997161</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44968.81650771474</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44969.53642034208</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44968.83411760339</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44969.53607302732</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44969.53543811679</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44968.82226430001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44969.53487175713</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44968.8283912778</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44969.53473463681</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44968.83482908575</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44969.53425319671</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44968.82762568397</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44969.5339683831</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44968.836970087</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44969.53324986236</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44968.83607997302</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44969.53235714744</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44968.83201703853</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44969.53145739079</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44968.83272623207</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44969.5313018782</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44968.83799102488</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44969.53007293754</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44968.83331997384</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44969.52800990461</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44969.4746938719</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44969.40788246163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44968.80385106849</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44968.42467377915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44963.57076442974</v>
+      </c>
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
+      <c r="G20" s="2">
+        <v>44962.65609726021</v>
       </c>
     </row>
   </sheetData>

--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>url</t>
   </si>
@@ -34,6 +34,9 @@
     <t>updated</t>
   </si>
   <si>
+    <t>Key setup for problem solving</t>
+  </si>
+  <si>
     <t>13 cognitive biases to avoid in daily life</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>How to Break Down a Complex Problem</t>
   </si>
   <si>
+    <t>key-setup-for-problem-solving</t>
+  </si>
+  <si>
     <t>cognitive-biases-to-avoid-in-daily-life</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t>how-to-break-down-a-complex-problem</t>
+  </si>
+  <si>
+    <t>Key Setup For Problem Solving</t>
   </si>
   <si>
     <t>13 Cognitive Biases To Avoid In Daily Life</t>
@@ -564,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,19 +607,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>44969.77608403955</v>
+        <v>44970.84285372053</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>44969.74406943242</v>
+        <v>44969.9128825571</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -618,19 +627,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>44969.53807938268</v>
+        <v>44969.77608403955</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>44968.82652412132</v>
+        <v>44969.74406943242</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -638,19 +647,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>44969.5374997161</v>
+        <v>44969.53807938268</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>44968.81650771474</v>
+        <v>44968.82652412132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -658,19 +667,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
-        <v>44969.53642034208</v>
+        <v>44969.5374997161</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>44968.83411760339</v>
+        <v>44968.81650771474</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -678,19 +687,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>44969.53607302732</v>
+        <v>44969.53642034208</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>44968.82335802943</v>
+        <v>44968.83411760339</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -698,19 +707,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
-        <v>44969.53543811679</v>
+        <v>44969.53607302732</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>44968.82226430001</v>
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -718,19 +727,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>44969.53487175713</v>
+        <v>44969.53543811679</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>44968.8283912778</v>
+        <v>44968.82226430001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -738,19 +747,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
-        <v>44969.53473463681</v>
+        <v>44969.53487175713</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>44968.83482908575</v>
+        <v>44968.8283912778</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -758,19 +767,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2">
-        <v>44969.53425319671</v>
+        <v>44969.53473463681</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2">
-        <v>44968.82762568397</v>
+        <v>44968.83482908575</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -778,19 +787,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>44969.5339683831</v>
+        <v>44969.53425319671</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2">
-        <v>44968.836970087</v>
+        <v>44968.82762568397</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -798,19 +807,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2">
-        <v>44969.53324986236</v>
+        <v>44969.5339683831</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2">
-        <v>44968.83607997302</v>
+        <v>44968.836970087</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -818,19 +827,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2">
-        <v>44969.53235714744</v>
+        <v>44969.53324986236</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>44968.83201703853</v>
+        <v>44968.83607997302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -838,19 +847,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
-        <v>44969.53145739079</v>
+        <v>44969.53235714744</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2">
-        <v>44968.83272623207</v>
+        <v>44968.83201703853</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -858,19 +867,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2">
-        <v>44969.5313018782</v>
+        <v>44969.53145739079</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>44968.83799102488</v>
+        <v>44968.83272623207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -878,19 +887,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2">
-        <v>44969.53007293754</v>
+        <v>44969.5313018782</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2">
-        <v>44968.83331997384</v>
+        <v>44968.83799102488</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -898,19 +907,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>44969.52800990461</v>
+        <v>44969.53007293754</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>44968.82335802943</v>
+        <v>44968.83331997384</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -918,19 +927,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2">
-        <v>44969.4746938719</v>
+        <v>44969.52800990461</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2">
-        <v>44969.40788246163</v>
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -938,19 +947,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2">
-        <v>44968.80385106849</v>
+        <v>44969.4746938719</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="2">
-        <v>44968.42467377915</v>
+        <v>44969.40788246163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -958,18 +967,38 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2">
-        <v>44963.57076442974</v>
+        <v>44968.80385106849</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="2">
+        <v>44968.42467377915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44963.57076442974</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2">
         <v>44962.65609726021</v>
       </c>
     </row>

--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -613,7 +613,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>44970.84285372053</v>
+        <v>44970.84635276953</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>

--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -34,12 +34,15 @@
     <t>updated</t>
   </si>
   <si>
+    <t>What is an Aha Moment</t>
+  </si>
+  <si>
+    <t>13 cognitive biases to avoid in daily life</t>
+  </si>
+  <si>
     <t>Key setup for problem solving</t>
   </si>
   <si>
-    <t>13 cognitive biases to avoid in daily life</t>
-  </si>
-  <si>
     <t>What is the 80 percent rule</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>What is the barnum effect</t>
   </si>
   <si>
-    <t>What is an Aha Moment</t>
-  </si>
-  <si>
     <t xml:space="preserve">How can devops team take advantage of artificial intelligence </t>
   </si>
   <si>
@@ -94,12 +94,15 @@
     <t>How to Break Down a Complex Problem</t>
   </si>
   <si>
+    <t>what-is-an-aha-moment</t>
+  </si>
+  <si>
+    <t>cognitive-biases-to-avoid-in-daily-life</t>
+  </si>
+  <si>
     <t>key-setup-for-problem-solving</t>
   </si>
   <si>
-    <t>cognitive-biases-to-avoid-in-daily-life</t>
-  </si>
-  <si>
     <t>what-is-the-80-percent-rule</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
     <t>what-is-the-barnum-effect</t>
   </si>
   <si>
-    <t>what-is-an-aha-moment</t>
-  </si>
-  <si>
     <t>how-can-devops-team-take-advantage-of-artificial-intelligence-</t>
   </si>
   <si>
@@ -154,12 +154,15 @@
     <t>how-to-break-down-a-complex-problem</t>
   </si>
   <si>
+    <t>What Is An Aha Moment</t>
+  </si>
+  <si>
+    <t>13 Cognitive Biases To Avoid In Daily Life</t>
+  </si>
+  <si>
     <t>Key Setup For Problem Solving</t>
   </si>
   <si>
-    <t>13 Cognitive Biases To Avoid In Daily Life</t>
-  </si>
-  <si>
     <t>What Is The 80 Percent Rule</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>What Is The Barnum Effect</t>
-  </si>
-  <si>
-    <t>What Is An Aha Moment</t>
   </si>
   <si>
     <t xml:space="preserve">How Can Devops Team Take Advantage Of Artificial Intelligence </t>
@@ -613,13 +613,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>44970.84635276953</v>
+        <v>44983.66443622751</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>44969.9128825571</v>
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -633,7 +633,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>44969.77608403955</v>
+        <v>44983.66333873353</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -653,13 +653,13 @@
         <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>44969.53807938268</v>
+        <v>44970.84635276953</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>44968.82652412132</v>
+        <v>44969.9128825571</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -673,13 +673,13 @@
         <v>49</v>
       </c>
       <c r="D5" s="2">
-        <v>44969.5374997161</v>
+        <v>44969.53807938268</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>44968.81650771474</v>
+        <v>44968.82652412132</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -693,13 +693,13 @@
         <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>44969.53642034208</v>
+        <v>44969.5374997161</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>44968.83411760339</v>
+        <v>44968.81650771474</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -713,13 +713,13 @@
         <v>51</v>
       </c>
       <c r="D7" s="2">
-        <v>44969.53607302732</v>
+        <v>44969.53642034208</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>44968.82335802943</v>
+        <v>44968.83411760339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -733,13 +733,13 @@
         <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>44969.53543811679</v>
+        <v>44969.53607302732</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>44968.82226430001</v>
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -753,13 +753,13 @@
         <v>53</v>
       </c>
       <c r="D9" s="2">
-        <v>44969.53487175713</v>
+        <v>44969.53543811679</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>44968.8283912778</v>
+        <v>44968.82226430001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -773,13 +773,13 @@
         <v>54</v>
       </c>
       <c r="D10" s="2">
-        <v>44969.53473463681</v>
+        <v>44969.53487175713</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2">
-        <v>44968.83482908575</v>
+        <v>44968.8283912778</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -793,13 +793,13 @@
         <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>44969.53425319671</v>
+        <v>44969.53473463681</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2">
-        <v>44968.82762568397</v>
+        <v>44968.83482908575</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -813,13 +813,13 @@
         <v>56</v>
       </c>
       <c r="D12" s="2">
-        <v>44969.5339683831</v>
+        <v>44969.53425319671</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2">
-        <v>44968.836970087</v>
+        <v>44968.82762568397</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -833,13 +833,13 @@
         <v>57</v>
       </c>
       <c r="D13" s="2">
-        <v>44969.53324986236</v>
+        <v>44969.5339683831</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>44968.83607997302</v>
+        <v>44968.836970087</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -853,13 +853,13 @@
         <v>58</v>
       </c>
       <c r="D14" s="2">
-        <v>44969.53235714744</v>
+        <v>44969.53324986236</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2">
-        <v>44968.83201703853</v>
+        <v>44968.83607997302</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -873,13 +873,13 @@
         <v>59</v>
       </c>
       <c r="D15" s="2">
-        <v>44969.53145739079</v>
+        <v>44969.53235714744</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>44968.83272623207</v>
+        <v>44968.83201703853</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -893,13 +893,13 @@
         <v>60</v>
       </c>
       <c r="D16" s="2">
-        <v>44969.5313018782</v>
+        <v>44969.53145739079</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2">
-        <v>44968.83799102488</v>
+        <v>44968.83272623207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -913,13 +913,13 @@
         <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>44969.53007293754</v>
+        <v>44969.5313018782</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>44968.83331997384</v>
+        <v>44968.83799102488</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -933,13 +933,13 @@
         <v>62</v>
       </c>
       <c r="D18" s="2">
-        <v>44969.52800990461</v>
+        <v>44969.53007293754</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2">
-        <v>44968.82335802943</v>
+        <v>44968.83331997384</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -34,6 +34,45 @@
     <t>updated</t>
   </si>
   <si>
+    <t>What is the Technology Window</t>
+  </si>
+  <si>
+    <t>What is the Skyscraper Method</t>
+  </si>
+  <si>
+    <t>What is the single source of truth principle</t>
+  </si>
+  <si>
+    <t>What is the self-fulfilling prophecy</t>
+  </si>
+  <si>
+    <t>What is the quantitative accumulation effect</t>
+  </si>
+  <si>
+    <t>What is the Narrow Path Principle</t>
+  </si>
+  <si>
+    <t>What is the Dunning-Krueger-Effect</t>
+  </si>
+  <si>
+    <t>What is the Cheerleader effect</t>
+  </si>
+  <si>
+    <t>What is the Bystander Effect</t>
+  </si>
+  <si>
+    <t>What is the believe bias</t>
+  </si>
+  <si>
+    <t>What is the barnum effect</t>
+  </si>
+  <si>
+    <t>What is the ambiguity effect</t>
+  </si>
+  <si>
+    <t>What is the 80 percent rule</t>
+  </si>
+  <si>
     <t>What is an Aha Moment</t>
   </si>
   <si>
@@ -43,48 +82,9 @@
     <t>Key setup for problem solving</t>
   </si>
   <si>
-    <t>What is the 80 percent rule</t>
-  </si>
-  <si>
     <t>What is K Level Thinking</t>
   </si>
   <si>
-    <t>What is the ambiguity effect</t>
-  </si>
-  <si>
-    <t>What is the Skyscraper Method</t>
-  </si>
-  <si>
-    <t>What is the Technology Window</t>
-  </si>
-  <si>
-    <t>What is the single source of truth principle</t>
-  </si>
-  <si>
-    <t>What is the self-fulfilling prophecy</t>
-  </si>
-  <si>
-    <t>What is the quantitative accumulation effect</t>
-  </si>
-  <si>
-    <t>What is the Narrow Path Principle</t>
-  </si>
-  <si>
-    <t>What is the Dunning-Krueger-Effect</t>
-  </si>
-  <si>
-    <t>What is the believe bias</t>
-  </si>
-  <si>
-    <t>What is the Cheerleader effect</t>
-  </si>
-  <si>
-    <t>What is the Bystander Effect</t>
-  </si>
-  <si>
-    <t>What is the barnum effect</t>
-  </si>
-  <si>
     <t xml:space="preserve">How can devops team take advantage of artificial intelligence </t>
   </si>
   <si>
@@ -94,6 +94,45 @@
     <t>How to Break Down a Complex Problem</t>
   </si>
   <si>
+    <t>what-is-the-technology-window</t>
+  </si>
+  <si>
+    <t>what-is-the-skyscraper-method</t>
+  </si>
+  <si>
+    <t>what-is-the-single-source-of-truth-principle</t>
+  </si>
+  <si>
+    <t>what-is-the-self-fulfilling-prophecy</t>
+  </si>
+  <si>
+    <t>what-is-the-quantitative-accumulation-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-narrow-path-principle</t>
+  </si>
+  <si>
+    <t>what-is-the-dunning-krueger-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-cheerleader-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-bystander-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-believe-bias</t>
+  </si>
+  <si>
+    <t>what-is-the-barnum-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-ambiguity-effect</t>
+  </si>
+  <si>
+    <t>what-is-the-80-percent-rule</t>
+  </si>
+  <si>
     <t>what-is-an-aha-moment</t>
   </si>
   <si>
@@ -103,48 +142,9 @@
     <t>key-setup-for-problem-solving</t>
   </si>
   <si>
-    <t>what-is-the-80-percent-rule</t>
-  </si>
-  <si>
     <t>what-is-k-level-thinking</t>
   </si>
   <si>
-    <t>what-is-the-ambiguity-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-skyscraper-method</t>
-  </si>
-  <si>
-    <t>what-is-the-technology-window</t>
-  </si>
-  <si>
-    <t>what-is-the-single-source-of-truth-principle</t>
-  </si>
-  <si>
-    <t>what-is-the-self-fulfilling-prophecy</t>
-  </si>
-  <si>
-    <t>what-is-the-quantitative-accumulation-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-narrow-path-principle</t>
-  </si>
-  <si>
-    <t>what-is-the-dunning-krueger-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-believe-bias</t>
-  </si>
-  <si>
-    <t>what-is-the-cheerleader-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-bystander-effect</t>
-  </si>
-  <si>
-    <t>what-is-the-barnum-effect</t>
-  </si>
-  <si>
     <t>how-can-devops-team-take-advantage-of-artificial-intelligence-</t>
   </si>
   <si>
@@ -154,6 +154,45 @@
     <t>how-to-break-down-a-complex-problem</t>
   </si>
   <si>
+    <t>What Is The Technology Window</t>
+  </si>
+  <si>
+    <t>What Is The Skyscraper Method</t>
+  </si>
+  <si>
+    <t>What Is The Single Source Of Truth Principle</t>
+  </si>
+  <si>
+    <t>What Is The Self-Fulfilling Prophecy</t>
+  </si>
+  <si>
+    <t>What Is The Quantitative Accumulation Effect</t>
+  </si>
+  <si>
+    <t>What Is The Narrow Path Principle</t>
+  </si>
+  <si>
+    <t>What Is The Dunning-Krueger-Effect</t>
+  </si>
+  <si>
+    <t>What Is The Cheerleader Effect</t>
+  </si>
+  <si>
+    <t>What Is The Bystander Effect</t>
+  </si>
+  <si>
+    <t>What Is The Believe Bias</t>
+  </si>
+  <si>
+    <t>What Is The Barnum Effect</t>
+  </si>
+  <si>
+    <t>What Is The Ambiguity Effect</t>
+  </si>
+  <si>
+    <t>What Is The 80 Percent Rule</t>
+  </si>
+  <si>
     <t>What Is An Aha Moment</t>
   </si>
   <si>
@@ -163,46 +202,7 @@
     <t>Key Setup For Problem Solving</t>
   </si>
   <si>
-    <t>What Is The 80 Percent Rule</t>
-  </si>
-  <si>
     <t>What Is K Level Thinking</t>
-  </si>
-  <si>
-    <t>What Is The Ambiguity Effect</t>
-  </si>
-  <si>
-    <t>What Is The Skyscraper Method</t>
-  </si>
-  <si>
-    <t>What Is The Technology Window</t>
-  </si>
-  <si>
-    <t>What Is The Single Source Of Truth Principle</t>
-  </si>
-  <si>
-    <t>What Is The Self-Fulfilling Prophecy</t>
-  </si>
-  <si>
-    <t>What Is The Quantitative Accumulation Effect</t>
-  </si>
-  <si>
-    <t>What Is The Narrow Path Principle</t>
-  </si>
-  <si>
-    <t>What Is The Dunning-Krueger-Effect</t>
-  </si>
-  <si>
-    <t>What Is The Believe Bias</t>
-  </si>
-  <si>
-    <t>What Is The Cheerleader Effect</t>
-  </si>
-  <si>
-    <t>What Is The Bystander Effect</t>
-  </si>
-  <si>
-    <t>What Is The Barnum Effect</t>
   </si>
   <si>
     <t xml:space="preserve">How Can Devops Team Take Advantage Of Artificial Intelligence </t>
@@ -613,13 +613,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>44983.66443622751</v>
+        <v>44984.79226117156</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>44968.82335802943</v>
+        <v>44968.82226430001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -633,13 +633,13 @@
         <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>44983.66333873353</v>
+        <v>44984.79139847053</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>44969.74406943242</v>
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -653,13 +653,13 @@
         <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>44970.84635276953</v>
+        <v>44984.79075432817</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>44969.9128825571</v>
+        <v>44968.8283912778</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -673,13 +673,13 @@
         <v>49</v>
       </c>
       <c r="D5" s="2">
-        <v>44969.53807938268</v>
+        <v>44984.78997172293</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>44968.82652412132</v>
+        <v>44968.83482908575</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -693,13 +693,13 @@
         <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>44969.5374997161</v>
+        <v>44984.78734691756</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>44968.81650771474</v>
+        <v>44968.82762568397</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -713,13 +713,13 @@
         <v>51</v>
       </c>
       <c r="D7" s="2">
-        <v>44969.53642034208</v>
+        <v>44984.78653146478</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>44968.83411760339</v>
+        <v>44968.836970087</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -733,13 +733,13 @@
         <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>44969.53607302732</v>
+        <v>44984.77886384894</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>44968.82335802943</v>
+        <v>44968.83607997302</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -753,13 +753,13 @@
         <v>53</v>
       </c>
       <c r="D9" s="2">
-        <v>44969.53543811679</v>
+        <v>44984.76482031686</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>44968.82226430001</v>
+        <v>44968.83272623207</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -773,13 +773,13 @@
         <v>54</v>
       </c>
       <c r="D10" s="2">
-        <v>44969.53487175713</v>
+        <v>44984.76419652337</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2">
-        <v>44968.8283912778</v>
+        <v>44968.83799102488</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -793,13 +793,13 @@
         <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>44969.53473463681</v>
+        <v>44984.76331853376</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2">
-        <v>44968.83482908575</v>
+        <v>44968.83201703853</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -813,13 +813,13 @@
         <v>56</v>
       </c>
       <c r="D12" s="2">
-        <v>44969.53425319671</v>
+        <v>44984.76202055444</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2">
-        <v>44968.82762568397</v>
+        <v>44968.83331997384</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -833,13 +833,13 @@
         <v>57</v>
       </c>
       <c r="D13" s="2">
-        <v>44969.5339683831</v>
+        <v>44984.76082692308</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>44968.836970087</v>
+        <v>44968.83411760339</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -853,13 +853,13 @@
         <v>58</v>
       </c>
       <c r="D14" s="2">
-        <v>44969.53324986236</v>
+        <v>44984.75974282543</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2">
-        <v>44968.83607997302</v>
+        <v>44968.82652412132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -873,13 +873,13 @@
         <v>59</v>
       </c>
       <c r="D15" s="2">
-        <v>44969.53235714744</v>
+        <v>44983.66443622751</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>44968.83201703853</v>
+        <v>44968.82335802943</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -893,13 +893,13 @@
         <v>60</v>
       </c>
       <c r="D16" s="2">
-        <v>44969.53145739079</v>
+        <v>44983.66333873353</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2">
-        <v>44968.83272623207</v>
+        <v>44969.74406943242</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -913,13 +913,13 @@
         <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>44969.5313018782</v>
+        <v>44970.84635276953</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>44968.83799102488</v>
+        <v>44969.9128825571</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -933,13 +933,13 @@
         <v>62</v>
       </c>
       <c r="D18" s="2">
-        <v>44969.53007293754</v>
+        <v>44969.5374997161</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2">
-        <v>44968.83331997384</v>
+        <v>44968.81650771474</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/shoulderofgiants.com/input.xlsx
+++ b/shoulderofgiants.com/input.xlsx
@@ -34,64 +34,64 @@
     <t>updated</t>
   </si>
   <si>
-    <t>What is the Technology Window</t>
-  </si>
-  <si>
-    <t>What is the Skyscraper Method</t>
-  </si>
-  <si>
-    <t>What is the single source of truth principle</t>
-  </si>
-  <si>
-    <t>What is the self-fulfilling prophecy</t>
-  </si>
-  <si>
-    <t>What is the quantitative accumulation effect</t>
-  </si>
-  <si>
-    <t>What is the Narrow Path Principle</t>
-  </si>
-  <si>
-    <t>What is the Dunning-Krueger-Effect</t>
-  </si>
-  <si>
-    <t>What is the Cheerleader effect</t>
-  </si>
-  <si>
-    <t>What is the Bystander Effect</t>
-  </si>
-  <si>
-    <t>What is the believe bias</t>
-  </si>
-  <si>
-    <t>What is the barnum effect</t>
-  </si>
-  <si>
-    <t>What is the ambiguity effect</t>
-  </si>
-  <si>
-    <t>What is the 80 percent rule</t>
-  </si>
-  <si>
-    <t>What is an Aha Moment</t>
+    <t>what is the technology window</t>
+  </si>
+  <si>
+    <t>what is the skyscraper method</t>
+  </si>
+  <si>
+    <t>what is the single source of truth principle</t>
+  </si>
+  <si>
+    <t>what is the self-fulfilling prophecy</t>
+  </si>
+  <si>
+    <t>what is the quantitative accumulation effect</t>
+  </si>
+  <si>
+    <t>what is the narrow path principle</t>
+  </si>
+  <si>
+    <t>what is the dunning-krueger-effect</t>
+  </si>
+  <si>
+    <t>what is the cheerleader effect</t>
+  </si>
+  <si>
+    <t>what is the bystander effect</t>
+  </si>
+  <si>
+    <t>what is the believe bias</t>
+  </si>
+  <si>
+    <t>what is the barnum effect</t>
+  </si>
+  <si>
+    <t>what is the ambiguity effect</t>
+  </si>
+  <si>
+    <t>what is the 80 percent rule</t>
+  </si>
+  <si>
+    <t>what is an aha moment</t>
   </si>
   <si>
     <t>13 cognitive biases to avoid in daily life</t>
   </si>
   <si>
-    <t>Key setup for problem solving</t>
-  </si>
-  <si>
-    <t>What is K Level Thinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can devops team take advantage of artificial intelligence </t>
-  </si>
-  <si>
-    <t>What Jobs are threatened by AI the most</t>
-  </si>
-  <si>
-    <t>How to Break Down a Complex Problem</t>
+    <t>key setup for problem solving</t>
+  </si>
+  <si>
+    <t>what is k level thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how can devops team take advantage of artificial intelligence </t>
+  </si>
+  <si>
+    <t>what jobs are threatened by ai the most</t>
+  </si>
+  <si>
+    <t>how to break down a complex problem</t>
   </si>
   <si>
     <t>what-is-the-technology-window</t>
